--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -380,16 +380,16 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>

--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -777,7 +777,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -949,7 +949,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>

--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="77" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -221,15 +221,25 @@
     <t>ACCUMULATED OT</t>
   </si>
   <si>
+    <t>Legends:</t>
+  </si>
+  <si>
     <t>LATES</t>
   </si>
   <si>
+    <t>Employee has request(s)/remark(s) for that day.
+*May incur late and/or undertime depending on his or her time-in and time-out.</t>
+  </si>
+  <si>
     <t>ACCUMULATED VL</t>
   </si>
   <si>
     <t>ACCUMULATED SL</t>
   </si>
   <si>
+    <t>Employee is considered half-day because of his time-in or time-out.</t>
+  </si>
+  <si>
     <t>VL BALANCE</t>
   </si>
   <si>
@@ -237,6 +247,9 @@
   </si>
   <si>
     <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>Employee has no time-in and therefore, considered as absent.</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -250,7 +263,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -293,9 +306,16 @@
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +337,21 @@
         <fgColor rgb="FFDF5E5E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A3CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF5E5E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border/>
@@ -422,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -442,7 +477,11 @@
     <xf borderId="6" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="7" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="7" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -744,9 +783,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="7" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -779,12 +816,12 @@
       <c r="E11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="n">
+        <v>3.0</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -984,9 +1021,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -1016,9 +1051,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -1036,16 +1069,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -1086,16 +1119,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="5" t="str">
@@ -1136,22 +1169,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -1186,25 +1219,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="B22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="5" t="str">
@@ -1237,10 +1270,10 @@
     </row>
     <row r="23"/>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="5" t="str">
@@ -1249,40 +1282,40 @@
       <c r="D24" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="0" t="s">
+      <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q24" s="0" t="str">
@@ -1302,10 +1335,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="5" t="str">
@@ -1314,40 +1347,40 @@
       <c r="D25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="0" t="s">
+      <c r="E25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1367,10 +1400,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="5" t="str">
@@ -1379,40 +1412,40 @@
       <c r="D26" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="0" t="s">
+      <c r="E26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1432,10 +1465,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="5" t="str">
@@ -1444,40 +1477,40 @@
       <c r="D27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="0" t="s">
+      <c r="E27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q27" s="0" t="str">
@@ -1497,52 +1530,52 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="0" t="s">
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q28" s="0" t="str">
@@ -1562,52 +1595,52 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="0" t="s">
+      <c r="E29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q29" s="0" t="str">
@@ -1627,10 +1660,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C30" s="5" t="str">
@@ -1639,40 +1672,40 @@
       <c r="D30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="0" t="s">
+      <c r="E30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>65</v>
       </c>
       <c r="Q30" s="0" t="str">
@@ -1681,7 +1714,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="18">
+  <mergeCells count="25">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1694,11 +1727,18 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:P28"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -816,9 +816,7 @@
       <c r="E11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>

--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="81" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>TOTAL ABSENCES</t>
   </si>
   <si>
     <t>ACCUMULATED OT</t>
@@ -498,7 +501,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="C5" state="frozenSplit" activePane="bottomRight" ySplit="4" xSplit="2"/>
@@ -1266,119 +1269,106 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+    <row r="23">
+      <c r="A23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <f>INT(LEFT(C25,2))</f>
-      </c>
-      <c r="R24" s="0" t="str">
-        <f>IF(LEFT(RIGHT(C25,LEN(C25)-2),1)=".",RIGHT(C25,LEN(C25)-3),RIGHT(C25,LEN(C25)-2))</f>
-      </c>
-      <c r="S24" s="0" t="str">
-        <f>INT(LEFT(R24,1))</f>
-      </c>
-      <c r="T24" s="0" t="str">
-        <f>RIGHT(R24,LEN(R24)-2)+0</f>
-      </c>
-      <c r="U24" s="0" t="str">
-        <f>Q24*8*60+S24*60+T24</f>
-      </c>
-    </row>
+      <c r="B23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
+        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="12" t="s">
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1399,51 +1389,51 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
+        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="12" t="s">
+      <c r="E26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1464,22 +1454,22 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
+        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>65</v>
@@ -1529,18 +1519,18 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>77</v>
+      <c r="C28" s="5" t="str">
+        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -1594,22 +1584,22 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>77</v>
+      <c r="C29" s="5" t="str">
+        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>65</v>
@@ -1642,77 +1632,207 @@
         <v>65</v>
       </c>
       <c r="Q29" s="0" t="str">
-        <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>65</v>
+        <f>INT(LEFT(C30,2))</f>
+      </c>
+      <c r="R29" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C30,LEN(C30)-2),1)=".",RIGHT(C30,LEN(C30)-3),RIGHT(C30,LEN(C30)-2))</f>
       </c>
       <c r="S29" s="0" t="str">
-        <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
+        <f>INT(LEFT(R29,1))</f>
       </c>
       <c r="T29" s="0" t="str">
-        <f>T24+IF(T25&gt;T27,T25-T27,0)+IF(T26&gt;T28,T26-T28,0)</f>
+        <f>RIGHT(R29,LEN(R29)-2)+0</f>
       </c>
       <c r="U29" s="0" t="str">
-        <f>U24+IF(U25&gt;U27,U25-U27,0)+IF(U26&gt;U28,U26-U28,0)</f>
+        <f>Q29*8*60+S29*60+T29</f>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="0" t="str">
+        <f>INT(LEFT(C31,2))</f>
+      </c>
+      <c r="R30" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C31,LEN(C31)-2),1)=".",RIGHT(C31,LEN(C31)-3),RIGHT(C31,LEN(C31)-2))</f>
+      </c>
+      <c r="S30" s="0" t="str">
+        <f>INT(LEFT(R30,1))</f>
+      </c>
+      <c r="T30" s="0" t="str">
+        <f>RIGHT(R30,LEN(R30)-2)+0</f>
+      </c>
+      <c r="U30" s="0" t="str">
+        <f>Q30*8*60+S30*60+T30</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="5" t="str">
-        <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q30" s="0" t="str">
-        <f>U29/60</f>
+      <c r="G31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="0" t="str">
+        <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="S31" s="0" t="str">
+        <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
+      </c>
+      <c r="T31" s="0" t="str">
+        <f>T26+T25+IF(T27&gt;T29,T27-T29,0)+IF(T28&gt;T30,T28-T30,0)</f>
+      </c>
+      <c r="U31" s="0" t="str">
+        <f>U26+U25+IF(U27&gt;U29,U27-U29,0)+IF(U28&gt;U30,U28-U30,0)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" s="0" t="str">
+        <f>U31/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="25">
+  <mergeCells count="28">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1724,12 +1844,11 @@
     <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="J23:P23"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:P26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:P28"/>
@@ -1738,6 +1857,10 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:P32"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="82" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="82" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -266,11 +266,18 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="15"/>
+      <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -309,8 +316,23 @@
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
       <b val="true"/>
       <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -327,7 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF29A3CC"/>
+        <fgColor rgb="FF66A3FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -342,7 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF29A3CC"/>
+        <fgColor rgb="FF66A3FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -356,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -387,72 +409,118 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+    </border>
+    <border>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -460,32 +528,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="2" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
+    <xf borderId="2" numFmtId="0" fontId="2" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="4" numFmtId="0" fontId="4" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="4" numFmtId="0" fontId="4" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="5" numFmtId="0" fontId="5" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="5" numFmtId="0" fontId="5" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="6" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="6" numFmtId="0" fontId="6" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="0" numFmtId="0" fontId="0" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="0" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="0" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="0" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf borderId="7" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="7" numFmtId="0" fontId="7" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="8" numFmtId="0" fontId="8" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="9" numFmtId="0" fontId="9" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="10" numFmtId="0" fontId="0" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="11" numFmtId="0" fontId="0" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="12" numFmtId="0" fontId="0" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="13" numFmtId="0" fontId="10" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="14" numFmtId="0" fontId="11" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="15" numFmtId="0" fontId="12" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +579,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="C5" state="frozenSplit" activePane="bottomRight" ySplit="4" xSplit="2"/>
@@ -548,827 +626,876 @@
       </c>
     </row>
     <row ht="50" customHeight="true" r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P10" s="7" t="inlineStr">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P10" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P12" s="5" t="inlineStr">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P14" s="5" t="inlineStr">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P14" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P15" s="5" t="inlineStr">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P15" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P16" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P17" s="8" t="inlineStr">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P18" s="8" t="inlineStr">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" s="11" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5" t="str">
+      <c r="B19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="17" t="str">
         <f>COUNT(E5:E18)</f>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="5" t="s">
+      <c r="F19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="5" t="str">
+      <c r="B20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="17" t="str">
         <f>SUM(E5:E18)</f>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="5" t="s">
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="5" t="str">
+      <c r="B21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="17" t="str">
         <f>SUM(G5:G18)</f>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="H21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="5" t="str">
+      <c r="B22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="17" t="str">
         <f>SUM(H5:H18)</f>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="17" t="str">
         <f>SUM(I5:I18)</f>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="J22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="5" t="n">
+      <c r="B23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="17" t="n">
         <v>2.5</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24"/>
+      <c r="J23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="5" t="str">
+      <c r="B25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="17" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" s="3" t="s">
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>65</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1388,52 +1515,52 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="5" t="str">
+      <c r="B26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="17" t="str">
         <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="3" t="s">
+      <c r="F26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1453,52 +1580,52 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="5" t="str">
+      <c r="B27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="17" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="12" t="s">
+      <c r="G27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="15" t="s">
         <v>65</v>
       </c>
       <c r="Q27" s="0" t="str">
@@ -1518,52 +1645,52 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="5" t="str">
+      <c r="B28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="17" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="12" t="s">
+      <c r="E28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="15" t="s">
         <v>65</v>
       </c>
       <c r="Q28" s="0" t="str">
@@ -1583,52 +1710,52 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="5" t="str">
+      <c r="B29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="17" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="E29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" s="12" t="s">
+      <c r="G29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="15" t="s">
         <v>65</v>
       </c>
       <c r="Q29" s="0" t="str">
@@ -1648,52 +1775,52 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="12" t="s">
+      <c r="E30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="15" t="s">
         <v>65</v>
       </c>
       <c r="Q30" s="0" t="str">
@@ -1713,52 +1840,52 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" s="12" t="s">
+      <c r="G31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" s="15" t="s">
         <v>65</v>
       </c>
       <c r="Q31" s="0" t="str">
@@ -1778,74 +1905,119 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="5" t="str">
+      <c r="B32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="17" t="str">
         <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
       </c>
       <c r="D32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="12" t="s">
+      <c r="E32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="15" t="s">
         <v>65</v>
       </c>
       <c r="Q32" s="0" t="str">
         <f>U31/60</f>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="28">
+  <mergeCells count="23">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:P19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:P20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="J22:P22"/>
     <mergeCell ref="A23:H23"/>
-    <mergeCell ref="J23:P23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="E26:P26"/>

--- a/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Soriano,Josif Hans.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="78" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="89" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -68,127 +68,160 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-21-2015</t>
+    <t>04-25-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>08:26:00</t>
-  </si>
-  <si>
-    <t>15:46:00</t>
-  </si>
-  <si>
-    <t>03-22-2015</t>
+    <t>12:22:00</t>
+  </si>
+  <si>
+    <t>16:29:00</t>
+  </si>
+  <si>
+    <t>04-26-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-23-2015</t>
+    <t>10:11:00</t>
+  </si>
+  <si>
+    <t>04-27-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>12:39:00</t>
+    <t>08:43:00</t>
+  </si>
+  <si>
+    <t>20:02:00</t>
+  </si>
+  <si>
+    <t>~OT Barter CX Stars promotion testing</t>
+  </si>
+  <si>
+    <t>04-28-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>00:33:00</t>
+  </si>
+  <si>
+    <t>23:03:00</t>
+  </si>
+  <si>
+    <t>~OT Barter CX regression testing for Pentstar's environment</t>
+  </si>
+  <si>
+    <t>04-29-2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>08:50:00</t>
+  </si>
+  <si>
+    <t>23:08:00</t>
+  </si>
+  <si>
+    <t>04-30-2015</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>12:46:00</t>
+  </si>
+  <si>
+    <t>18:38:00</t>
+  </si>
+  <si>
+    <t>05-01-2015</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>09:41:00</t>
+  </si>
+  <si>
+    <t>14:40:00</t>
+  </si>
+  <si>
+    <t>~Special Day - Labor ( Regular Holiday )</t>
+  </si>
+  <si>
+    <t>05-02-2015</t>
+  </si>
+  <si>
+    <t>11:26:00</t>
+  </si>
+  <si>
+    <t>22:27:00</t>
+  </si>
+  <si>
+    <t>05-03-2015</t>
+  </si>
+  <si>
+    <t>13:37:00</t>
+  </si>
+  <si>
+    <t>22:18:00</t>
+  </si>
+  <si>
+    <t>~OT Completion of Barter CX configuration and synchronization for 16 Pentstar hard drives</t>
+  </si>
+  <si>
+    <t>05-04-2015</t>
+  </si>
+  <si>
+    <t>08:04:00</t>
   </si>
   <si>
     <t>20:09:00</t>
   </si>
   <si>
-    <t>03-24-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>03-25-2015</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>08:38:00</t>
-  </si>
-  <si>
-    <t>20:24:00</t>
-  </si>
-  <si>
-    <t>03-26-2015</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>03-27-2015</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>13:35:00</t>
-  </si>
-  <si>
-    <t>19:07:00</t>
-  </si>
-  <si>
-    <t>03-28-2015</t>
-  </si>
-  <si>
-    <t>08:51:00</t>
-  </si>
-  <si>
-    <t>12:12:00</t>
-  </si>
-  <si>
-    <t>03-29-2015</t>
-  </si>
-  <si>
-    <t>03-30-2015</t>
-  </si>
-  <si>
-    <t>08:42:00</t>
-  </si>
-  <si>
-    <t>22:02:00</t>
-  </si>
-  <si>
-    <t>~OT Barter CX Testing for latest update on: 1. Multi senior citizen discount rate 2. Customer creation on POS side 3. Customer card expiration tracking</t>
-  </si>
-  <si>
-    <t>03-31-2015</t>
-  </si>
-  <si>
-    <t>08:31:00</t>
-  </si>
-  <si>
-    <t>20:05:00</t>
-  </si>
-  <si>
-    <t>~OT Barter CX Testing for latest update on:  1. Multi senior citizen discount rate 2. Customer creation on POS side 3. Customer card expiration tracking</t>
-  </si>
-  <si>
-    <t>04-01-2015</t>
-  </si>
-  <si>
-    <t>00:39:00</t>
-  </si>
-  <si>
-    <t>21:03:00</t>
-  </si>
-  <si>
-    <t>04-02-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Maundy Thursday ( Regular Holiday )</t>
-  </si>
-  <si>
-    <t>04-03-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Good Friday ( Regular Holiday )</t>
+    <t>05-05-2015</t>
+  </si>
+  <si>
+    <t>07:47:00</t>
+  </si>
+  <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>~OT Barter CX GO-LIVE and monitoring for Pentstar's Pilot Store ~OB Others|Pentstar's Barter CX GO LIVE|</t>
+  </si>
+  <si>
+    <t>05-06-2015</t>
+  </si>
+  <si>
+    <t>09:52:00</t>
+  </si>
+  <si>
+    <t>23:33:00</t>
+  </si>
+  <si>
+    <t>~OB Others|Pentstar's Barter CX GO LIVE|</t>
+  </si>
+  <si>
+    <t>05-07-2015</t>
+  </si>
+  <si>
+    <t>05-08-2015</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -704,7 +737,9 @@
       <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -728,181 +763,191 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10" t="inlineStr">
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P7" s="10" t="inlineStr">
+      <c r="P7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11" t="inlineStr">
+      <c r="P8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P8" s="11" t="inlineStr">
+      <c r="P9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6" t="inlineStr">
+      <c r="P10" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P9" s="6" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P10" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P11" s="10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="P11" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -926,87 +971,87 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6" t="inlineStr">
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P13" s="6" t="inlineStr">
+      <c r="P13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="inlineStr">
+      <c r="P14" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="9" t="n">
-        <v>0.25</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="n">
         <v>4</v>
@@ -1014,59 +1059,75 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="O15" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P15" s="9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6" t="inlineStr">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="P16" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="P16" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1076,25 +1137,33 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="K17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="O17" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P17" s="9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1104,331 +1173,339 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="K18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="O18" s="9" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="P18" s="9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E19" s="17" t="str">
-        <f>COUNT(E5:E15)</f>
+        <f>COUNT(E5:E18)</f>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E20" s="17" t="str">
-        <f>SUM(E5:E15)</f>
+        <f>SUM(E5:E18)</f>
       </c>
       <c r="F20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H22" s="17" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I22" s="6" t="str">
-        <f>SUM(I5:I15)</f>
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="17" t="str">
+        <f>SUM(I5:I18)</f>
       </c>
       <c r="J22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>3.0</v>
+        <v>0.5</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C25" s="17" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
@@ -1436,37 +1513,37 @@
         </is>
       </c>
       <c r="F25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
@@ -1486,52 +1563,52 @@
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C26" s="17" t="str">
-        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
+        <f>FLOOR(I23,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
@@ -1551,52 +1628,52 @@
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C27" s="17" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
@@ -1616,52 +1693,52 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C28" s="17" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
@@ -1681,52 +1758,52 @@
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C29" s="17" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="0" t="str">
         <f>INT(LEFT(C30,2))</f>
@@ -1746,52 +1823,52 @@
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="0" t="str">
         <f>INT(LEFT(C31,2))</f>
@@ -1811,58 +1888,58 @@
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="0" t="str">
         <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
       </c>
       <c r="R31" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S31" s="0" t="str">
         <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
@@ -1876,52 +1953,52 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C32" s="17" t="str">
         <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
       </c>
       <c r="D32" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="0" t="str">
         <f>U31/60</f>
@@ -1929,52 +2006,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
